--- a/ORM功能说明.xlsx
+++ b/ORM功能说明.xlsx
@@ -1,28 +1,303 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\git\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="总的功能" sheetId="1" r:id="rId1"/>
+    <sheet name="第一阶段" sheetId="2" r:id="rId2"/>
+    <sheet name="第二阶段" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、可以连接MSSQL、ORCALE、MYSQL等数据库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持数据库的创建、升级、备份、恢复操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表的创建、字段的创建与升级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、对表的增删改查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持增加SQL约束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表扩展</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表继承</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表关联</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、对MSSQL的支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、数据库支持创建与升级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持单表的增删改查</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持Int，String，Float型字段的操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表关联</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表扩展</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、支持表约束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -46,19 +321,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +661,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ORM功能说明.xlsx
+++ b/ORM功能说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -417,23 +417,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -469,23 +452,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,7 +696,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ORM功能说明.xlsx
+++ b/ORM功能说明.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\git\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="总的功能" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,14 +267,18 @@
   </si>
   <si>
     <t>第一阶段功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/33593446</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +299,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,15 +324,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,10 +428,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,104 +637,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -736,31 +754,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>16</v>
       </c>
